--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2741.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2741.xlsx
@@ -354,7 +354,7 @@
         <v>2.403761249453625</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.371730871039329</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2741.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2741.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158351351985899</v>
+        <v>1.500607371330261</v>
       </c>
       <c r="B1">
-        <v>2.403761249453625</v>
+        <v>2.539062738418579</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.026667356491089</v>
       </c>
       <c r="D1">
-        <v>2.371730871039329</v>
+        <v>3.336366891860962</v>
       </c>
       <c r="E1">
-        <v>1.22158172643896</v>
+        <v>1.181021451950073</v>
       </c>
     </row>
   </sheetData>
